--- a/municipal/მშენებლობა/დასრულებული მშენებლობა/აჭარა ა.რ/ხელვაჩაური.xlsx
+++ b/municipal/მშენებლობა/დასრულებული მშენებლობა/აჭარა ა.რ/ხელვაჩაური.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\რეზერვი დამთავრებულები მაჩვენ\მშენებლობა ქარ EN\მშენებლობა\1 დასრულებული მშენებლობა\აჭარის ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\მშენებლობა\დასრულებული მშენებლობა\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098160E-345A-4BF0-AAF7-D1086802E98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="33150" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ხელვაჩაური" sheetId="1" r:id="rId1"/>
@@ -54,17 +55,17 @@
     <t>…</t>
   </si>
   <si>
-    <t>ექსპლუატაციაში მიღებული ობიექტები მუნიციპალიტეტში</t>
+    <t>ექსპლუატაციაში მიღებული ობიექტები ხელვაჩაურის მუნიციპალიტეტში</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ###\ ##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -159,29 +159,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,16 +459,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="2" customWidth="1"/>
     <col min="2" max="14" width="14.5703125" style="1" customWidth="1"/>
     <col min="15" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="30.85546875" style="1" customWidth="1"/>
@@ -666,200 +662,174 @@
     <col min="16143" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="51.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:23" s="6" customFormat="1" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
         <v>2010</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2011</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2012</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2013</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>2014</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>2015</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>2016</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>2017</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>2018</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>2019</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>2020</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>2021</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>26</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>25</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>15</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>9</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>6</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>8</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>4</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>19</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>10</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>5</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>7</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>6</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>12122</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>49277</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>10048</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>4321</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>2095</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>12443</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>2636</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="10">
         <v>1681</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>5539</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="10">
         <v>1496</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="10">
         <v>3274</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="10">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="51" customHeight="1">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
     </row>
-    <row r="10" spans="1:23">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="E15" s="12"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/municipal/მშენებლობა/დასრულებული მშენებლობა/აჭარა ა.რ/ხელვაჩაური.xlsx
+++ b/municipal/მშენებლობა/დასრულებული მშენებლობა/აჭარა ა.რ/ხელვაჩაური.xlsx
@@ -1,46 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\მშენებლობა\დასრულებული მშენებლობა\აჭარა ა.რ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098160E-345A-4BF0-AAF7-D1086802E98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33150" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19185" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="ხელვაჩაური" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>ექსპლუატაციაში მიღებული ობიექტები ხელვაჩაურის მუნიციპალიტეტში</t>
+  </si>
   <si>
     <t xml:space="preserve">(დეკლარირებული მონაცემები) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2022        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>იანვარი-ივნისი</t>
-    </r>
   </si>
   <si>
     <t>რაოდენობა</t>
@@ -49,58 +28,239 @@
     <t>საერთო ფართობი კვ.მ</t>
   </si>
   <si>
-    <t>...- მონაცემი არ არის ან კონფიდენციალურია</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>ექსპლუატაციაში მიღებული ობიექტები ხელვაჩაურის მუნიციპალიტეტში</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <charset val="134"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> „ ...“ - მონაცემი არ არის ან კონფიდენციალურია.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ###\ ##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ###\ ##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="LiterMtavr"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="8"/>
       <name val="Sylfaen"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="LiterMtavr"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +273,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -126,10 +472,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -137,61 +483,364 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -240,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -275,7 +924,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -449,294 +1098,312 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="2" customWidth="1"/>
-    <col min="2" max="14" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15" max="256" width="9.140625" style="1"/>
-    <col min="257" max="257" width="30.85546875" style="1" customWidth="1"/>
-    <col min="258" max="270" width="14.5703125" style="1" customWidth="1"/>
-    <col min="271" max="512" width="9.140625" style="1"/>
-    <col min="513" max="513" width="30.85546875" style="1" customWidth="1"/>
-    <col min="514" max="526" width="14.5703125" style="1" customWidth="1"/>
-    <col min="527" max="768" width="9.140625" style="1"/>
-    <col min="769" max="769" width="30.85546875" style="1" customWidth="1"/>
-    <col min="770" max="782" width="14.5703125" style="1" customWidth="1"/>
-    <col min="783" max="1024" width="9.140625" style="1"/>
-    <col min="1025" max="1025" width="30.85546875" style="1" customWidth="1"/>
-    <col min="1026" max="1038" width="14.5703125" style="1" customWidth="1"/>
-    <col min="1039" max="1280" width="9.140625" style="1"/>
-    <col min="1281" max="1281" width="30.85546875" style="1" customWidth="1"/>
-    <col min="1282" max="1294" width="14.5703125" style="1" customWidth="1"/>
-    <col min="1295" max="1536" width="9.140625" style="1"/>
-    <col min="1537" max="1537" width="30.85546875" style="1" customWidth="1"/>
-    <col min="1538" max="1550" width="14.5703125" style="1" customWidth="1"/>
-    <col min="1551" max="1792" width="9.140625" style="1"/>
-    <col min="1793" max="1793" width="30.85546875" style="1" customWidth="1"/>
-    <col min="1794" max="1806" width="14.5703125" style="1" customWidth="1"/>
-    <col min="1807" max="2048" width="9.140625" style="1"/>
-    <col min="2049" max="2049" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2050" max="2062" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2063" max="2304" width="9.140625" style="1"/>
-    <col min="2305" max="2305" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2306" max="2318" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2319" max="2560" width="9.140625" style="1"/>
-    <col min="2561" max="2561" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2562" max="2574" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2575" max="2816" width="9.140625" style="1"/>
-    <col min="2817" max="2817" width="30.85546875" style="1" customWidth="1"/>
-    <col min="2818" max="2830" width="14.5703125" style="1" customWidth="1"/>
-    <col min="2831" max="3072" width="9.140625" style="1"/>
-    <col min="3073" max="3073" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3074" max="3086" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3087" max="3328" width="9.140625" style="1"/>
-    <col min="3329" max="3329" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3330" max="3342" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3343" max="3584" width="9.140625" style="1"/>
-    <col min="3585" max="3585" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3586" max="3598" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3599" max="3840" width="9.140625" style="1"/>
-    <col min="3841" max="3841" width="30.85546875" style="1" customWidth="1"/>
-    <col min="3842" max="3854" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3855" max="4096" width="9.140625" style="1"/>
-    <col min="4097" max="4097" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4098" max="4110" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4111" max="4352" width="9.140625" style="1"/>
-    <col min="4353" max="4353" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4354" max="4366" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4367" max="4608" width="9.140625" style="1"/>
-    <col min="4609" max="4609" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4610" max="4622" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4623" max="4864" width="9.140625" style="1"/>
-    <col min="4865" max="4865" width="30.85546875" style="1" customWidth="1"/>
-    <col min="4866" max="4878" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4879" max="5120" width="9.140625" style="1"/>
-    <col min="5121" max="5121" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5122" max="5134" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5135" max="5376" width="9.140625" style="1"/>
-    <col min="5377" max="5377" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5378" max="5390" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5391" max="5632" width="9.140625" style="1"/>
-    <col min="5633" max="5633" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5634" max="5646" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5647" max="5888" width="9.140625" style="1"/>
-    <col min="5889" max="5889" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5890" max="5902" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5903" max="6144" width="9.140625" style="1"/>
-    <col min="6145" max="6145" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6146" max="6158" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6159" max="6400" width="9.140625" style="1"/>
-    <col min="6401" max="6401" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6402" max="6414" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6415" max="6656" width="9.140625" style="1"/>
-    <col min="6657" max="6657" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6658" max="6670" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6671" max="6912" width="9.140625" style="1"/>
-    <col min="6913" max="6913" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6914" max="6926" width="14.5703125" style="1" customWidth="1"/>
-    <col min="6927" max="7168" width="9.140625" style="1"/>
-    <col min="7169" max="7169" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7170" max="7182" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7183" max="7424" width="9.140625" style="1"/>
-    <col min="7425" max="7425" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7426" max="7438" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7439" max="7680" width="9.140625" style="1"/>
-    <col min="7681" max="7681" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7682" max="7694" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7695" max="7936" width="9.140625" style="1"/>
-    <col min="7937" max="7937" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7938" max="7950" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7951" max="8192" width="9.140625" style="1"/>
-    <col min="8193" max="8193" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8194" max="8206" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8207" max="8448" width="9.140625" style="1"/>
-    <col min="8449" max="8449" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8450" max="8462" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8463" max="8704" width="9.140625" style="1"/>
-    <col min="8705" max="8705" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8706" max="8718" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8719" max="8960" width="9.140625" style="1"/>
-    <col min="8961" max="8961" width="30.85546875" style="1" customWidth="1"/>
-    <col min="8962" max="8974" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8975" max="9216" width="9.140625" style="1"/>
-    <col min="9217" max="9217" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9218" max="9230" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9231" max="9472" width="9.140625" style="1"/>
-    <col min="9473" max="9473" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9474" max="9486" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9487" max="9728" width="9.140625" style="1"/>
-    <col min="9729" max="9729" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9730" max="9742" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9743" max="9984" width="9.140625" style="1"/>
-    <col min="9985" max="9985" width="30.85546875" style="1" customWidth="1"/>
-    <col min="9986" max="9998" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9999" max="10240" width="9.140625" style="1"/>
-    <col min="10241" max="10241" width="30.85546875" style="1" customWidth="1"/>
-    <col min="10242" max="10254" width="14.5703125" style="1" customWidth="1"/>
-    <col min="10255" max="10496" width="9.140625" style="1"/>
-    <col min="10497" max="10497" width="30.85546875" style="1" customWidth="1"/>
-    <col min="10498" max="10510" width="14.5703125" style="1" customWidth="1"/>
-    <col min="10511" max="10752" width="9.140625" style="1"/>
-    <col min="10753" max="10753" width="30.85546875" style="1" customWidth="1"/>
-    <col min="10754" max="10766" width="14.5703125" style="1" customWidth="1"/>
-    <col min="10767" max="11008" width="9.140625" style="1"/>
-    <col min="11009" max="11009" width="30.85546875" style="1" customWidth="1"/>
-    <col min="11010" max="11022" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11023" max="11264" width="9.140625" style="1"/>
-    <col min="11265" max="11265" width="30.85546875" style="1" customWidth="1"/>
-    <col min="11266" max="11278" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11279" max="11520" width="9.140625" style="1"/>
-    <col min="11521" max="11521" width="30.85546875" style="1" customWidth="1"/>
-    <col min="11522" max="11534" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11535" max="11776" width="9.140625" style="1"/>
-    <col min="11777" max="11777" width="30.85546875" style="1" customWidth="1"/>
-    <col min="11778" max="11790" width="14.5703125" style="1" customWidth="1"/>
-    <col min="11791" max="12032" width="9.140625" style="1"/>
-    <col min="12033" max="12033" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12034" max="12046" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12047" max="12288" width="9.140625" style="1"/>
-    <col min="12289" max="12289" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12290" max="12302" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12303" max="12544" width="9.140625" style="1"/>
-    <col min="12545" max="12545" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12546" max="12558" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12559" max="12800" width="9.140625" style="1"/>
-    <col min="12801" max="12801" width="30.85546875" style="1" customWidth="1"/>
-    <col min="12802" max="12814" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12815" max="13056" width="9.140625" style="1"/>
-    <col min="13057" max="13057" width="30.85546875" style="1" customWidth="1"/>
-    <col min="13058" max="13070" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13071" max="13312" width="9.140625" style="1"/>
-    <col min="13313" max="13313" width="30.85546875" style="1" customWidth="1"/>
-    <col min="13314" max="13326" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13327" max="13568" width="9.140625" style="1"/>
-    <col min="13569" max="13569" width="30.85546875" style="1" customWidth="1"/>
-    <col min="13570" max="13582" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13583" max="13824" width="9.140625" style="1"/>
-    <col min="13825" max="13825" width="30.85546875" style="1" customWidth="1"/>
-    <col min="13826" max="13838" width="14.5703125" style="1" customWidth="1"/>
-    <col min="13839" max="14080" width="9.140625" style="1"/>
-    <col min="14081" max="14081" width="30.85546875" style="1" customWidth="1"/>
-    <col min="14082" max="14094" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14095" max="14336" width="9.140625" style="1"/>
-    <col min="14337" max="14337" width="30.85546875" style="1" customWidth="1"/>
-    <col min="14338" max="14350" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14351" max="14592" width="9.140625" style="1"/>
-    <col min="14593" max="14593" width="30.85546875" style="1" customWidth="1"/>
-    <col min="14594" max="14606" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14607" max="14848" width="9.140625" style="1"/>
-    <col min="14849" max="14849" width="30.85546875" style="1" customWidth="1"/>
-    <col min="14850" max="14862" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14863" max="15104" width="9.140625" style="1"/>
-    <col min="15105" max="15105" width="30.85546875" style="1" customWidth="1"/>
-    <col min="15106" max="15118" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15119" max="15360" width="9.140625" style="1"/>
-    <col min="15361" max="15361" width="30.85546875" style="1" customWidth="1"/>
-    <col min="15362" max="15374" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15375" max="15616" width="9.140625" style="1"/>
-    <col min="15617" max="15617" width="30.85546875" style="1" customWidth="1"/>
-    <col min="15618" max="15630" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15631" max="15872" width="9.140625" style="1"/>
-    <col min="15873" max="15873" width="30.85546875" style="1" customWidth="1"/>
-    <col min="15874" max="15886" width="14.5703125" style="1" customWidth="1"/>
-    <col min="15887" max="16128" width="9.140625" style="1"/>
-    <col min="16129" max="16129" width="30.85546875" style="1" customWidth="1"/>
-    <col min="16130" max="16142" width="14.5703125" style="1" customWidth="1"/>
-    <col min="16143" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="14" width="8.71428571428571" style="3" customWidth="1"/>
+    <col min="15" max="255" width="9.14285714285714" style="3"/>
+    <col min="256" max="256" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="257" max="269" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="270" max="511" width="9.14285714285714" style="3"/>
+    <col min="512" max="512" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="513" max="525" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="526" max="767" width="9.14285714285714" style="3"/>
+    <col min="768" max="768" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="769" max="781" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="782" max="1023" width="9.14285714285714" style="3"/>
+    <col min="1024" max="1024" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="1025" max="1037" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="1038" max="1279" width="9.14285714285714" style="3"/>
+    <col min="1280" max="1280" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="1281" max="1293" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="1294" max="1535" width="9.14285714285714" style="3"/>
+    <col min="1536" max="1536" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="1537" max="1549" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="1550" max="1791" width="9.14285714285714" style="3"/>
+    <col min="1792" max="1792" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="1793" max="1805" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="1806" max="2047" width="9.14285714285714" style="3"/>
+    <col min="2048" max="2048" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="2049" max="2061" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="2062" max="2303" width="9.14285714285714" style="3"/>
+    <col min="2304" max="2304" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="2305" max="2317" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="2318" max="2559" width="9.14285714285714" style="3"/>
+    <col min="2560" max="2560" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="2561" max="2573" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="2574" max="2815" width="9.14285714285714" style="3"/>
+    <col min="2816" max="2816" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="2817" max="2829" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="2830" max="3071" width="9.14285714285714" style="3"/>
+    <col min="3072" max="3072" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="3073" max="3085" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="3086" max="3327" width="9.14285714285714" style="3"/>
+    <col min="3328" max="3328" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="3329" max="3341" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="3342" max="3583" width="9.14285714285714" style="3"/>
+    <col min="3584" max="3584" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="3585" max="3597" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="3598" max="3839" width="9.14285714285714" style="3"/>
+    <col min="3840" max="3840" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="3841" max="3853" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="3854" max="4095" width="9.14285714285714" style="3"/>
+    <col min="4096" max="4096" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="4097" max="4109" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="4110" max="4351" width="9.14285714285714" style="3"/>
+    <col min="4352" max="4352" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="4353" max="4365" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="4366" max="4607" width="9.14285714285714" style="3"/>
+    <col min="4608" max="4608" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="4609" max="4621" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="4622" max="4863" width="9.14285714285714" style="3"/>
+    <col min="4864" max="4864" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="4865" max="4877" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="4878" max="5119" width="9.14285714285714" style="3"/>
+    <col min="5120" max="5120" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="5121" max="5133" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="5134" max="5375" width="9.14285714285714" style="3"/>
+    <col min="5376" max="5376" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="5377" max="5389" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="5390" max="5631" width="9.14285714285714" style="3"/>
+    <col min="5632" max="5632" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="5633" max="5645" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="5646" max="5887" width="9.14285714285714" style="3"/>
+    <col min="5888" max="5888" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="5889" max="5901" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="5902" max="6143" width="9.14285714285714" style="3"/>
+    <col min="6144" max="6144" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="6145" max="6157" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="6158" max="6399" width="9.14285714285714" style="3"/>
+    <col min="6400" max="6400" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="6401" max="6413" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="6414" max="6655" width="9.14285714285714" style="3"/>
+    <col min="6656" max="6656" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="6657" max="6669" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="6670" max="6911" width="9.14285714285714" style="3"/>
+    <col min="6912" max="6912" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="6913" max="6925" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="6926" max="7167" width="9.14285714285714" style="3"/>
+    <col min="7168" max="7168" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="7169" max="7181" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="7182" max="7423" width="9.14285714285714" style="3"/>
+    <col min="7424" max="7424" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="7425" max="7437" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="7438" max="7679" width="9.14285714285714" style="3"/>
+    <col min="7680" max="7680" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="7681" max="7693" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="7694" max="7935" width="9.14285714285714" style="3"/>
+    <col min="7936" max="7936" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="7937" max="7949" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="7950" max="8191" width="9.14285714285714" style="3"/>
+    <col min="8192" max="8192" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="8193" max="8205" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="8206" max="8447" width="9.14285714285714" style="3"/>
+    <col min="8448" max="8448" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="8449" max="8461" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="8462" max="8703" width="9.14285714285714" style="3"/>
+    <col min="8704" max="8704" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="8705" max="8717" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="8718" max="8959" width="9.14285714285714" style="3"/>
+    <col min="8960" max="8960" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="8961" max="8973" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="8974" max="9215" width="9.14285714285714" style="3"/>
+    <col min="9216" max="9216" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="9217" max="9229" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="9230" max="9471" width="9.14285714285714" style="3"/>
+    <col min="9472" max="9472" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="9473" max="9485" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="9486" max="9727" width="9.14285714285714" style="3"/>
+    <col min="9728" max="9728" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="9729" max="9741" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="9742" max="9983" width="9.14285714285714" style="3"/>
+    <col min="9984" max="9984" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="9985" max="9997" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="9998" max="10239" width="9.14285714285714" style="3"/>
+    <col min="10240" max="10240" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="10241" max="10253" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="10254" max="10495" width="9.14285714285714" style="3"/>
+    <col min="10496" max="10496" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="10497" max="10509" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="10510" max="10751" width="9.14285714285714" style="3"/>
+    <col min="10752" max="10752" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="10753" max="10765" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="10766" max="11007" width="9.14285714285714" style="3"/>
+    <col min="11008" max="11008" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="11009" max="11021" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="11022" max="11263" width="9.14285714285714" style="3"/>
+    <col min="11264" max="11264" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="11265" max="11277" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="11278" max="11519" width="9.14285714285714" style="3"/>
+    <col min="11520" max="11520" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="11521" max="11533" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="11534" max="11775" width="9.14285714285714" style="3"/>
+    <col min="11776" max="11776" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="11777" max="11789" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="11790" max="12031" width="9.14285714285714" style="3"/>
+    <col min="12032" max="12032" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="12033" max="12045" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="12046" max="12287" width="9.14285714285714" style="3"/>
+    <col min="12288" max="12288" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="12289" max="12301" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="12302" max="12543" width="9.14285714285714" style="3"/>
+    <col min="12544" max="12544" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="12545" max="12557" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="12558" max="12799" width="9.14285714285714" style="3"/>
+    <col min="12800" max="12800" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="12801" max="12813" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="12814" max="13055" width="9.14285714285714" style="3"/>
+    <col min="13056" max="13056" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="13057" max="13069" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="13070" max="13311" width="9.14285714285714" style="3"/>
+    <col min="13312" max="13312" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="13313" max="13325" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="13326" max="13567" width="9.14285714285714" style="3"/>
+    <col min="13568" max="13568" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="13569" max="13581" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="13582" max="13823" width="9.14285714285714" style="3"/>
+    <col min="13824" max="13824" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="13825" max="13837" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="13838" max="14079" width="9.14285714285714" style="3"/>
+    <col min="14080" max="14080" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="14081" max="14093" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="14094" max="14335" width="9.14285714285714" style="3"/>
+    <col min="14336" max="14336" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="14337" max="14349" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="14350" max="14591" width="9.14285714285714" style="3"/>
+    <col min="14592" max="14592" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="14593" max="14605" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="14606" max="14847" width="9.14285714285714" style="3"/>
+    <col min="14848" max="14848" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="14849" max="14861" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="14862" max="15103" width="9.14285714285714" style="3"/>
+    <col min="15104" max="15104" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="15105" max="15117" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="15118" max="15359" width="9.14285714285714" style="3"/>
+    <col min="15360" max="15360" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="15361" max="15373" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="15374" max="15615" width="9.14285714285714" style="3"/>
+    <col min="15616" max="15616" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="15617" max="15629" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="15630" max="15871" width="9.14285714285714" style="3"/>
+    <col min="15872" max="15872" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="15873" max="15885" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="15886" max="16127" width="9.14285714285714" style="3"/>
+    <col min="16128" max="16128" width="30.8571428571429" style="3" customWidth="1"/>
+    <col min="16129" max="16141" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="16142" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
+    <row r="1" ht="51.75" customHeight="1" spans="1:21">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" ht="15.75" spans="1:21">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:22" s="5" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4">
+    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:22">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8">
         <v>2010</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>2011</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>2012</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>2013</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>2014</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>2015</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <v>2016</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="8">
         <v>2017</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="8">
         <v>2018</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="8">
         <v>2019</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="8">
         <v>2020</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="8">
         <v>2021</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="N3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2023</v>
+      </c>
+      <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="22.5" customHeight="1" spans="1:15">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="10">
@@ -775,66 +1442,74 @@
       <c r="M4" s="10">
         <v>6</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="3">
         <v>1</v>
       </c>
+      <c r="O4" s="3">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" ht="22.5" customHeight="1" spans="1:15">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="12">
         <v>12122</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="12">
         <v>49277</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>10048</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>4321</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>2095</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <v>12443</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="12">
         <v>2636</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="12">
         <v>1681</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <v>5539</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="12">
         <v>1496</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="12">
         <v>3274</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="12">
+        <v>333</v>
+      </c>
+      <c r="O5" s="12">
+        <v>19228</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" customHeight="1" spans="1:2">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="10">
-        <v>333</v>
-      </c>
+      <c r="B6" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
+    <row r="10" spans="2:2">
+      <c r="B10" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
+    <row r="15" spans="5:5">
+      <c r="E15" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>